--- a/natmiOut/OldD2/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95336447795476</v>
+        <v>2.989631</v>
       </c>
       <c r="H2">
-        <v>2.95336447795476</v>
+        <v>5.979262</v>
       </c>
       <c r="I2">
-        <v>0.0940201579436253</v>
+        <v>0.09195719396405833</v>
       </c>
       <c r="J2">
-        <v>0.0940201579436253</v>
+        <v>0.06346072881692182</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N2">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O2">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P2">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q2">
-        <v>4.917814562627726</v>
+        <v>5.094868361036333</v>
       </c>
       <c r="R2">
-        <v>4.917814562627726</v>
+        <v>30.569210166218</v>
       </c>
       <c r="S2">
-        <v>0.03631768684519966</v>
+        <v>0.02892050521279962</v>
       </c>
       <c r="T2">
-        <v>0.03631768684519966</v>
+        <v>0.01995837692997883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95336447795476</v>
+        <v>2.989631</v>
       </c>
       <c r="H3">
-        <v>2.95336447795476</v>
+        <v>5.979262</v>
       </c>
       <c r="I3">
-        <v>0.0940201579436253</v>
+        <v>0.09195719396405833</v>
       </c>
       <c r="J3">
-        <v>0.0940201579436253</v>
+        <v>0.06346072881692182</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N3">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O3">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P3">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q3">
-        <v>7.813549741672237</v>
+        <v>11.10504912483833</v>
       </c>
       <c r="R3">
-        <v>7.813549741672237</v>
+        <v>66.63029474903</v>
       </c>
       <c r="S3">
-        <v>0.05770247109842563</v>
+        <v>0.0630366887512587</v>
       </c>
       <c r="T3">
-        <v>0.05770247109842563</v>
+        <v>0.04350235188694297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90909245461702</v>
+        <v>1.926294333333334</v>
       </c>
       <c r="H4">
-        <v>1.90909245461702</v>
+        <v>5.778883</v>
       </c>
       <c r="I4">
-        <v>0.0607758288731016</v>
+        <v>0.05925032943604069</v>
       </c>
       <c r="J4">
-        <v>0.0607758288731016</v>
+        <v>0.06133401194457102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N4">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O4">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P4">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q4">
-        <v>3.17893803653384</v>
+        <v>3.282751634881889</v>
       </c>
       <c r="R4">
-        <v>3.17893803653384</v>
+        <v>29.544764713937</v>
       </c>
       <c r="S4">
-        <v>0.02347621583548299</v>
+        <v>0.01863420780308776</v>
       </c>
       <c r="T4">
-        <v>0.02347621583548299</v>
+        <v>0.01928952522037785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90909245461702</v>
+        <v>1.926294333333334</v>
       </c>
       <c r="H5">
-        <v>1.90909245461702</v>
+        <v>5.778883</v>
       </c>
       <c r="I5">
-        <v>0.0607758288731016</v>
+        <v>0.05925032943604069</v>
       </c>
       <c r="J5">
-        <v>0.0607758288731016</v>
+        <v>0.06133401194457102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N5">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O5">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P5">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q5">
-        <v>5.050778177548641</v>
+        <v>7.155262037543889</v>
       </c>
       <c r="R5">
-        <v>5.050778177548641</v>
+        <v>64.397358337895</v>
       </c>
       <c r="S5">
-        <v>0.03729961303761861</v>
+        <v>0.04061612163295294</v>
       </c>
       <c r="T5">
-        <v>0.03729961303761861</v>
+        <v>0.04204448672419317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.46624567368359</v>
+        <v>8.330727000000001</v>
       </c>
       <c r="H6">
-        <v>7.46624567368359</v>
+        <v>24.992181</v>
       </c>
       <c r="I6">
-        <v>0.2376874248761087</v>
+        <v>0.256242418746868</v>
       </c>
       <c r="J6">
-        <v>0.2376874248761087</v>
+        <v>0.2652538090795195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N6">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O6">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P6">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q6">
-        <v>12.43246879153392</v>
+        <v>14.197055561951</v>
       </c>
       <c r="R6">
-        <v>12.43246879153392</v>
+        <v>127.773500057559</v>
       </c>
       <c r="S6">
-        <v>0.09181283729461888</v>
+        <v>0.08058815072158089</v>
       </c>
       <c r="T6">
-        <v>0.09181283729461888</v>
+        <v>0.0834222298170335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.46624567368359</v>
+        <v>8.330727000000001</v>
       </c>
       <c r="H7">
-        <v>7.46624567368359</v>
+        <v>24.992181</v>
       </c>
       <c r="I7">
-        <v>0.2376874248761087</v>
+        <v>0.256242418746868</v>
       </c>
       <c r="J7">
-        <v>0.2376874248761087</v>
+        <v>0.2652538090795195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N7">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O7">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P7">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q7">
-        <v>19.75302486040313</v>
+        <v>30.944665940585</v>
       </c>
       <c r="R7">
-        <v>19.75302486040313</v>
+        <v>278.501993465265</v>
       </c>
       <c r="S7">
-        <v>0.1458745875814899</v>
+        <v>0.1756542680252871</v>
       </c>
       <c r="T7">
-        <v>0.1458745875814899</v>
+        <v>0.181831579262486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.755401531696</v>
+        <v>15.84396866666667</v>
       </c>
       <c r="H8">
-        <v>15.755401531696</v>
+        <v>47.531906</v>
       </c>
       <c r="I8">
-        <v>0.5015721396842727</v>
+        <v>0.4873400429153729</v>
       </c>
       <c r="J8">
-        <v>0.5015721396842727</v>
+        <v>0.5044785454822717</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N8">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O8">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P8">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q8">
-        <v>26.23521196621119</v>
+        <v>27.00096924103711</v>
       </c>
       <c r="R8">
-        <v>26.23521196621119</v>
+        <v>243.008723169334</v>
       </c>
       <c r="S8">
-        <v>0.1937450467829726</v>
+        <v>0.1532682723773493</v>
       </c>
       <c r="T8">
-        <v>0.1937450467829726</v>
+        <v>0.1586583254168027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.755401531696</v>
+        <v>15.84396866666667</v>
       </c>
       <c r="H9">
-        <v>15.755401531696</v>
+        <v>47.531906</v>
       </c>
       <c r="I9">
-        <v>0.5015721396842727</v>
+        <v>0.4873400429153729</v>
       </c>
       <c r="J9">
-        <v>0.5015721396842727</v>
+        <v>0.5044785454822717</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N9">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O9">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P9">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q9">
-        <v>41.68317675885969</v>
+        <v>58.85276489832111</v>
       </c>
       <c r="R9">
-        <v>41.68317675885969</v>
+        <v>529.67488408489</v>
       </c>
       <c r="S9">
-        <v>0.3078270929013001</v>
+        <v>0.3340717705380236</v>
       </c>
       <c r="T9">
-        <v>0.3078270929013001</v>
+        <v>0.3458202200654689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.00449066969988</v>
+        <v>3.096654</v>
       </c>
       <c r="H10">
-        <v>3.00449066969988</v>
+        <v>9.289962000000001</v>
       </c>
       <c r="I10">
-        <v>0.0956477567919263</v>
+        <v>0.09524908342119047</v>
       </c>
       <c r="J10">
-        <v>0.0956477567919263</v>
+        <v>0.09859875001321379</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N10">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O10">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P10">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q10">
-        <v>5.002947681879559</v>
+        <v>5.277254781502001</v>
       </c>
       <c r="R10">
-        <v>5.002947681879559</v>
+        <v>47.495293033518</v>
       </c>
       <c r="S10">
-        <v>0.03694638846169393</v>
+        <v>0.02995580329118771</v>
       </c>
       <c r="T10">
-        <v>0.03694638846169393</v>
+        <v>0.03100927225821181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.00449066969988</v>
+        <v>3.096654</v>
       </c>
       <c r="H11">
-        <v>3.00449066969988</v>
+        <v>9.289962000000001</v>
       </c>
       <c r="I11">
-        <v>0.0956477567919263</v>
+        <v>0.09524908342119047</v>
       </c>
       <c r="J11">
-        <v>0.0956477567919263</v>
+        <v>0.09859875001321379</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N11">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O11">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P11">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q11">
-        <v>7.948811422133502</v>
+        <v>11.50258837717</v>
       </c>
       <c r="R11">
-        <v>7.948811422133502</v>
+        <v>103.52329539453</v>
       </c>
       <c r="S11">
-        <v>0.05870136833023237</v>
+        <v>0.06529328013000275</v>
       </c>
       <c r="T11">
-        <v>0.05870136833023237</v>
+        <v>0.06758947775500197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.323440042636962</v>
+        <v>0.323841</v>
       </c>
       <c r="H12">
-        <v>0.323440042636962</v>
+        <v>0.647682</v>
       </c>
       <c r="I12">
-        <v>0.01029669183096537</v>
+        <v>0.009960931516469628</v>
       </c>
       <c r="J12">
-        <v>0.01029669183096537</v>
+        <v>0.00687415466350221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N12">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O12">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P12">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q12">
-        <v>0.5385783446946942</v>
+        <v>0.551883247433</v>
       </c>
       <c r="R12">
-        <v>0.5385783446946942</v>
+        <v>3.311299484598</v>
       </c>
       <c r="S12">
-        <v>0.003977360149540998</v>
+        <v>0.003132709464351367</v>
       </c>
       <c r="T12">
-        <v>0.003977360149540998</v>
+        <v>0.00216191922795197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.323440042636962</v>
+        <v>0.323841</v>
       </c>
       <c r="H13">
-        <v>0.323440042636962</v>
+        <v>0.647682</v>
       </c>
       <c r="I13">
-        <v>0.01029669183096537</v>
+        <v>0.009960931516469628</v>
       </c>
       <c r="J13">
-        <v>0.01029669183096537</v>
+        <v>0.00687415466350221</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N13">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O13">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P13">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q13">
-        <v>0.8557070691601933</v>
+        <v>1.202914411055</v>
       </c>
       <c r="R13">
-        <v>0.8557070691601933</v>
+        <v>7.217486466329999</v>
       </c>
       <c r="S13">
-        <v>0.006319331681424368</v>
+        <v>0.006828222052118261</v>
       </c>
       <c r="T13">
-        <v>0.006319331681424368</v>
+        <v>0.004712235435550239</v>
       </c>
     </row>
   </sheetData>
